--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f11_95RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\Angle\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FA7948-D60E-47A9-A43F-0AFC99DEB594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E4FAFD-EAEE-4DB4-9FFF-E2F74753D4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5731C35-5253-46BC-B887-D7805B9EA46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC76F4CB-5ADA-4DD8-9CA1-24E2DB9B9130}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C62E0E-B215-4813-9CD5-01CCB1F1C79B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC447CD-6D03-436D-BB1A-9C0E476CEFAA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f11_95RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\Angle\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E4FAFD-EAEE-4DB4-9FFF-E2F74753D4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC9CB2E-EEB7-4D3A-9962-84B64A26E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC76F4CB-5ADA-4DD8-9CA1-24E2DB9B9130}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{95C6F25C-2179-4891-B62D-08E11998AB56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC447CD-6D03-436D-BB1A-9C0E476CEFAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C578CC3-8893-49C9-8375-0E439DAC6D39}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/Angle/f11_95RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\Angle\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC9CB2E-EEB7-4D3A-9962-84B64A26E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A30D837-A310-4733-BF05-46D142D72B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{95C6F25C-2179-4891-B62D-08E11998AB56}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F107521C-7191-4731-9F59-744F719B9826}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C578CC3-8893-49C9-8375-0E439DAC6D39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ADFCE4-0110-4247-9E99-1EA5AE312B9B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
